--- a/assets/files/bm_DTRR_MSTX.xlsx
+++ b/assets/files/bm_DTRR_MSTX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuank\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C664935-7886-4ADA-9165-3FD6BBBA1DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24770104-1590-4748-8708-3BA7A65342BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="123">
   <si>
     <t>Tên Đề xuất MS</t>
   </si>
@@ -287,6 +287,9 @@
     <t>Nhập thời gian dạng dd/MM/yyyy</t>
   </si>
   <si>
+    <t>Nhập thời gian dạng HH:mm</t>
+  </si>
+  <si>
     <t>Đề xuất số 1792/ĐX-VCC ngày 14/03/2025 về việc mua mỡ chống gỉ Lithium phục vụ công tác bảo dưỡng hạ tầng nhà trạm năm 2025</t>
   </si>
   <si>
@@ -392,13 +395,13 @@
     <t>12</t>
   </si>
   <si>
-    <t xml:space="preserve"> 17h00 </t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
     <t>17h00 ngày 23/04/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:00 </t>
   </si>
 </sst>
 </file>
@@ -2159,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
-      <selection activeCell="BV3" sqref="BV3"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="BX3" sqref="BX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2492,13 +2495,13 @@
         <v>80</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" s="86" t="s">
         <v>80</v>
@@ -2507,13 +2510,13 @@
         <v>80</v>
       </c>
       <c r="H2" s="88" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="89" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" s="90" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K2" s="91" t="s">
         <v>80</v>
@@ -2570,67 +2573,67 @@
         <v>80</v>
       </c>
       <c r="AC2" s="109" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD2" s="110" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE2" s="111" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF2" s="112" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG2" s="113" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH2" s="114" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI2" s="115" t="s">
         <v>80</v>
       </c>
       <c r="AJ2" s="116" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK2" s="117" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" s="118" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM2" s="119" t="s">
         <v>80</v>
       </c>
       <c r="AN2" s="120" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO2" s="121" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AP2" s="122" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ2" s="123" t="s">
         <v>80</v>
       </c>
       <c r="AR2" s="124" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS2" s="125" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AT2" s="126" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU2" s="127" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AV2" s="128" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AW2" s="129" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AX2" s="130" t="s">
         <v>80</v>
@@ -2642,34 +2645,34 @@
         <v>80</v>
       </c>
       <c r="BA2" s="133" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BB2" s="134" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BC2" s="135" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BD2" s="136" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BE2" s="137" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BF2" s="138" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BG2" s="139" t="s">
         <v>80</v>
       </c>
       <c r="BH2" s="140" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BI2" s="141" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BJ2" s="142" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BK2" s="143" t="s">
         <v>81</v>
@@ -2702,25 +2705,25 @@
         <v>80</v>
       </c>
       <c r="BU2" s="153" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BV2" s="154" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BW2" s="155" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BX2" s="156" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="BY2" s="157" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BZ2" s="158" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CA2" s="159" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CB2" s="160" t="s">
         <v>80</v>
@@ -2728,52 +2731,52 @@
     </row>
     <row r="3" spans="1:80" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="161" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" s="161" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="161" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="161" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="161" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="161" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="161" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="161" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="161" t="s">
+      <c r="G3" s="161" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="161" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="161" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="161" t="s">
+      <c r="J3" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="161" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="161" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="161" t="s">
-        <v>88</v>
-      </c>
       <c r="K3" s="161" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L3" s="161" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M3" s="161" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N3" s="161" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O3" s="161" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P3" s="161" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q3" s="171">
         <v>6862879800</v>
@@ -2799,124 +2802,124 @@
         <v>7.549.167.780</v>
       </c>
       <c r="W3" s="161" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X3" s="161" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y3" s="161" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="161" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA3" s="161" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AB3" s="161" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AC3" s="161" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD3" s="161" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE3" s="161" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF3" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="161" t="s">
-        <v>87</v>
-      </c>
       <c r="AG3" s="161" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH3" s="161" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI3" s="161" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ3" s="161" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK3" s="161" t="s">
         <v>104</v>
       </c>
-      <c r="AJ3" s="161" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK3" s="161" t="s">
-        <v>103</v>
-      </c>
       <c r="AL3" s="161" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM3" s="161" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN3" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="AN3" s="161" t="s">
-        <v>105</v>
-      </c>
       <c r="AO3" s="161" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AP3" s="161" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AQ3" s="161" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR3" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="AR3" s="161" t="s">
-        <v>105</v>
-      </c>
       <c r="AS3" s="161" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AT3" s="161" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AU3" s="161" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AV3" s="161" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AW3" s="161" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AX3" s="161" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AY3" s="172" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AZ3" s="161" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BA3" s="161" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BB3" s="161" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BC3" s="161" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BD3" s="161" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BE3" s="161" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BF3" s="161" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BG3" s="161" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BH3" s="161" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BI3" s="161" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BJ3" s="161" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BK3" s="171">
         <v>76000000</v>
@@ -2926,13 +2929,13 @@
         <v>76.000.000</v>
       </c>
       <c r="BM3" s="161" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BN3" s="161" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BO3" s="161" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BP3" s="171">
         <v>5285000000</v>
@@ -2949,28 +2952,28 @@
         <v>10.295.000.000</v>
       </c>
       <c r="BT3" s="161" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BU3" s="161" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BV3" s="161" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BW3" s="161" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BX3" s="161" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BY3" s="161" t="s">
         <v>120</v>
       </c>
       <c r="BZ3" s="161" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="CA3" s="161" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CB3" s="161" t="s">
         <v>121</v>
@@ -11013,6 +11016,11 @@
       <c r="CB101" s="170"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Lỗi nhập liệu" error="Chỉ được nhập số nguyên lớn hơn hoặc bằng 0!" sqref="BY3:CA3 BU3:BW3 BH3:BJ3 BA3:BF3 AR3:AW3 AN3:AP3 AJ3:AL3 AC3:AH3 H3:J3 C3:E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/files/bm_DTRR_MSTX.xlsx
+++ b/assets/files/bm_DTRR_MSTX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuank\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24770104-1590-4748-8708-3BA7A65342BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C206B7CD-6A83-44A8-80D2-3A648B38A119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31770" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="122">
   <si>
     <t>Tên Đề xuất MS</t>
   </si>
@@ -285,9 +285,6 @@
   </si>
   <si>
     <t>Nhập thời gian dạng dd/MM/yyyy</t>
-  </si>
-  <si>
-    <t>Nhập thời gian dạng HH:mm</t>
   </si>
   <si>
     <t>Đề xuất số 1792/ĐX-VCC ngày 14/03/2025 về việc mua mỡ chống gỉ Lithium phục vụ công tác bảo dưỡng hạ tầng nhà trạm năm 2025</t>
@@ -2162,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
-      <selection activeCell="BX3" sqref="BX3"/>
+    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="BY3" sqref="BY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,13 +2492,13 @@
         <v>80</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="86" t="s">
         <v>80</v>
@@ -2510,13 +2507,13 @@
         <v>80</v>
       </c>
       <c r="H2" s="88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" s="90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K2" s="91" t="s">
         <v>80</v>
@@ -2573,67 +2570,67 @@
         <v>80</v>
       </c>
       <c r="AC2" s="109" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD2" s="110" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE2" s="111" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AF2" s="112" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG2" s="113" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="114" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI2" s="115" t="s">
         <v>80</v>
       </c>
       <c r="AJ2" s="116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK2" s="117" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL2" s="118" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AM2" s="119" t="s">
         <v>80</v>
       </c>
       <c r="AN2" s="120" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AO2" s="121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AP2" s="122" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AQ2" s="123" t="s">
         <v>80</v>
       </c>
       <c r="AR2" s="124" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AS2" s="125" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AT2" s="126" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AU2" s="127" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AV2" s="128" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW2" s="129" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AX2" s="130" t="s">
         <v>80</v>
@@ -2645,34 +2642,34 @@
         <v>80</v>
       </c>
       <c r="BA2" s="133" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BB2" s="134" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BC2" s="135" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BD2" s="136" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BE2" s="137" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BF2" s="138" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BG2" s="139" t="s">
         <v>80</v>
       </c>
       <c r="BH2" s="140" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BI2" s="141" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BJ2" s="142" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BK2" s="143" t="s">
         <v>81</v>
@@ -2705,25 +2702,25 @@
         <v>80</v>
       </c>
       <c r="BU2" s="153" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BV2" s="154" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BW2" s="155" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BX2" s="156" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="BY2" s="157" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BZ2" s="158" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="CA2" s="159" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="CB2" s="160" t="s">
         <v>80</v>
@@ -2731,52 +2728,52 @@
     </row>
     <row r="3" spans="1:80" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="161" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="161" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="C3" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="D3" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="E3" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="161" t="s">
+      <c r="F3" s="161" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="161" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="161" t="s">
+      <c r="H3" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="161" t="s">
+      <c r="I3" s="161" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="161" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="161" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="K3" s="161" t="s">
+      <c r="L3" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="161" t="s">
+      <c r="M3" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="161" t="s">
+      <c r="N3" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="161" t="s">
+      <c r="O3" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="161" t="s">
+      <c r="P3" s="161" t="s">
         <v>96</v>
-      </c>
-      <c r="P3" s="161" t="s">
-        <v>97</v>
       </c>
       <c r="Q3" s="171">
         <v>6862879800</v>
@@ -2802,124 +2799,124 @@
         <v>7.549.167.780</v>
       </c>
       <c r="W3" s="161" t="s">
+        <v>97</v>
+      </c>
+      <c r="X3" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="161" t="s">
+      <c r="Y3" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" s="161" t="s">
+      <c r="Z3" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="Z3" s="161" t="s">
+      <c r="AA3" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="AA3" s="161" t="s">
+      <c r="AB3" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="AB3" s="161" t="s">
+      <c r="AC3" s="161" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD3" s="161" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" s="161" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="161" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG3" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="AC3" s="161" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD3" s="161" t="s">
+      <c r="AH3" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF3" s="161" t="s">
+      <c r="AI3" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ3" s="161" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK3" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL3" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="AG3" s="161" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH3" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI3" s="161" t="s">
+      <c r="AM3" s="161" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN3" s="161" t="s">
         <v>105</v>
       </c>
-      <c r="AJ3" s="161" t="s">
+      <c r="AO3" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP3" s="161" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ3" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="AK3" s="161" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL3" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM3" s="161" t="s">
+      <c r="AR3" s="161" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS3" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT3" s="161" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU3" s="161" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV3" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW3" s="161" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX3" s="161" t="s">
         <v>107</v>
       </c>
-      <c r="AN3" s="161" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO3" s="161" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP3" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ3" s="161" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR3" s="161" t="s">
-        <v>106</v>
-      </c>
-      <c r="AS3" s="161" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT3" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU3" s="161" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV3" s="161" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW3" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX3" s="161" t="s">
+      <c r="AY3" s="172" t="s">
         <v>108</v>
       </c>
-      <c r="AY3" s="172" t="s">
+      <c r="AZ3" s="161" t="s">
         <v>109</v>
       </c>
-      <c r="AZ3" s="161" t="s">
+      <c r="BA3" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="BA3" s="161" t="s">
+      <c r="BB3" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC3" s="161" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD3" s="161" t="s">
         <v>111</v>
       </c>
-      <c r="BB3" s="161" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC3" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD3" s="161" t="s">
+      <c r="BE3" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF3" s="161" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG3" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="BE3" s="161" t="s">
-        <v>104</v>
-      </c>
-      <c r="BF3" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG3" s="161" t="s">
+      <c r="BH3" s="161" t="s">
         <v>113</v>
       </c>
-      <c r="BH3" s="161" t="s">
-        <v>114</v>
-      </c>
       <c r="BI3" s="161" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BJ3" s="161" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BK3" s="171">
         <v>76000000</v>
@@ -2929,13 +2926,13 @@
         <v>76.000.000</v>
       </c>
       <c r="BM3" s="161" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN3" s="161" t="s">
         <v>115</v>
       </c>
-      <c r="BN3" s="161" t="s">
+      <c r="BO3" s="161" t="s">
         <v>116</v>
-      </c>
-      <c r="BO3" s="161" t="s">
-        <v>117</v>
       </c>
       <c r="BP3" s="171">
         <v>5285000000</v>
@@ -2952,31 +2949,31 @@
         <v>10.295.000.000</v>
       </c>
       <c r="BT3" s="161" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU3" s="161" t="s">
         <v>118</v>
       </c>
-      <c r="BU3" s="161" t="s">
+      <c r="BV3" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="BW3" s="161" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX3" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY3" s="161" t="s">
         <v>119</v>
       </c>
-      <c r="BV3" s="161" t="s">
-        <v>104</v>
-      </c>
-      <c r="BW3" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="BX3" s="161" t="s">
-        <v>122</v>
-      </c>
-      <c r="BY3" s="161" t="s">
+      <c r="BZ3" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="CA3" s="161" t="s">
+        <v>88</v>
+      </c>
+      <c r="CB3" s="161" t="s">
         <v>120</v>
-      </c>
-      <c r="BZ3" s="161" t="s">
-        <v>104</v>
-      </c>
-      <c r="CA3" s="161" t="s">
-        <v>89</v>
-      </c>
-      <c r="CB3" s="161" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.25">
@@ -11016,11 +11013,6 @@
       <c r="CB101" s="170"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Lỗi nhập liệu" error="Chỉ được nhập số nguyên lớn hơn hoặc bằng 0!" sqref="BY3:CA3 BU3:BW3 BH3:BJ3 BA3:BF3 AR3:AW3 AN3:AP3 AJ3:AL3 AC3:AH3 H3:J3 C3:E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/files/bm_DTRR_MSTX.xlsx
+++ b/assets/files/bm_DTRR_MSTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuank\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51049A70-282B-47D0-ADFD-C01BEF4CE4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32085C9D-2655-47E9-AE07-340D7E9F2ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5475" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
   <si>
     <t>Tên Đề xuất MS</t>
   </si>
@@ -194,16 +194,19 @@
     <t>Thời điểm mở thầu (Ngày/tháng/năm)</t>
   </si>
   <si>
+    <t>Thời gian bảo hành</t>
+  </si>
+  <si>
     <t>Nhập chữ</t>
   </si>
   <si>
-    <t>Nhập thời gian dạng dd/MM/yyyy</t>
+    <t>Nhập thời gian dạng dd/mm/yyyy</t>
   </si>
   <si>
     <t>Nhập số</t>
   </si>
   <si>
-    <t>Nhập thời gian dạng HH:mm dd/MM/yyyy</t>
+    <t>Nhập thời gian dạng hh:mm dd/mm/yyyy</t>
   </si>
   <si>
     <t>Đề xuất số 1792/ĐX-VCC ngày 14/03/2025 về việc mua mỡ chống gỉ Lithium phục vụ công tác bảo dưỡng hạ tầng nhà trạm năm 2025</t>
@@ -221,28 +224,28 @@
     <t>31/03/2025</t>
   </si>
   <si>
-    <t>Chi phí sản xuất kinh doanh</t>
+    <t>Vốn tự có</t>
   </si>
   <si>
     <t>mỡ chống gỉ Lithium phục vụ công tác bảo dưỡng hạ tầng nhà trạm năm 2025</t>
   </si>
   <si>
-    <t>Đấu thầu rộng rãi trong nước - Áp dụng đấu thầu qua mạng</t>
-  </si>
-  <si>
-    <t>Một giai đoạn, một túi hồ sơ</t>
-  </si>
-  <si>
-    <t>05-ĐTRR-VCC-2025</t>
-  </si>
-  <si>
-    <t>Mua sắm mỡ chống gỉ Lithium phục vụ công tác bảo dưỡng hạ tầng nhà trạm năm 2025</t>
-  </si>
-  <si>
-    <t>Bằng chữ: Bảy tỷ, năm trăm bốn mươi chín triệu, một trăm sáu mươi bảy nghìn, bảy trăm tám mươi đồng./.</t>
-  </si>
-  <si>
-    <t>Quý II/2025</t>
+    <t>Bán độ</t>
+  </si>
+  <si>
+    <t>Bán thân</t>
+  </si>
+  <si>
+    <t>GT001</t>
+  </si>
+  <si>
+    <t>Tên gói thầu mailing</t>
+  </si>
+  <si>
+    <t>Bảy tỷ</t>
+  </si>
+  <si>
+    <t>7 ngày</t>
   </si>
   <si>
     <t>Hợp đồng trọn gói</t>
@@ -290,7 +293,7 @@
     <t>11/04/2025</t>
   </si>
   <si>
-    <t>bảy mươi sáu trịu đồng</t>
+    <t>Bảy mươi sáu trịu</t>
   </si>
   <si>
     <t>tối thiểu 150 ngày, kể từ ngày có thời điểm đóng thầu</t>
@@ -309,6 +312,9 @@
   </si>
   <si>
     <t>17h00 ngày 23/04/2025</t>
+  </si>
+  <si>
+    <t>20 ngày</t>
   </si>
 </sst>
 </file>
@@ -589,6 +595,11 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <i/>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -854,10 +865,7 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
+      <i/>
       <sz val="12"/>
       <name val="Times New Roman"/>
     </font>
@@ -1108,7 +1116,7 @@
     <xf numFmtId="0" fontId="53" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,14 +1275,14 @@
     <xf numFmtId="0" fontId="106" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="107" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="107" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="109" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="108" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="109" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="110" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1295,10 +1303,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="107" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="109" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="107" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="109" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1635,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA101"/>
+  <dimension ref="A1:BB101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AY13" sqref="AY13"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BA7" sqref="BA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,9 +1702,10 @@
     <col min="51" max="51" width="21.85546875" customWidth="1"/>
     <col min="52" max="52" width="22.85546875" customWidth="1"/>
     <col min="53" max="53" width="37.85546875" customWidth="1"/>
+    <col min="54" max="54" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1856,221 +1865,227 @@
       <c r="BA1" s="53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:53" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="BB1" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="56" t="s">
+    </row>
+    <row r="2" spans="1:54" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="59" t="s">
+      <c r="B2" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="66" t="s">
+      <c r="C2" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="D2" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="G2" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="69" t="s">
+      <c r="Z2" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="AA2" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="AC2" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="V2" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="W2" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" s="78" t="s">
+      <c r="AE2" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="79" t="s">
+      <c r="AF2" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG2" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="81" t="s">
+      <c r="AI2" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD2" s="83" t="s">
+      <c r="AK2" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL2" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM2" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF2" s="85" t="s">
+      <c r="AN2" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO2" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP2" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ2" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="86" t="s">
+      <c r="AR2" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="AH2" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI2" s="88" t="s">
+      <c r="AS2" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="AJ2" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK2" s="90" t="s">
+      <c r="AT2" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU2" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV2" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW2" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX2" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="AL2" s="91" t="s">
+      <c r="AY2" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ2" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA2" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="AM2" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN2" s="93" t="s">
+      <c r="BB2" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="AO2" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP2" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ2" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR2" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS2" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT2" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU2" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="AV2" s="101" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW2" s="102" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX2" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY2" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ2" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA2" s="106" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="107" t="s">
+    </row>
+    <row r="3" spans="1:54" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="109" t="s">
         <v>58</v>
       </c>
+      <c r="B3" s="109" t="s">
+        <v>59</v>
+      </c>
       <c r="C3" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="107" t="s">
         <v>60</v>
       </c>
+      <c r="D3" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="109" t="s">
+        <v>61</v>
+      </c>
       <c r="F3" s="117" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="107" t="s">
+      <c r="G3" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="107" t="s">
+      <c r="H3" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="107" t="s">
+      <c r="I3" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="107" t="s">
+      <c r="J3" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="107" t="s">
+      <c r="K3" s="109" t="s">
         <v>67</v>
+      </c>
+      <c r="L3" s="109" t="s">
+        <v>68</v>
       </c>
       <c r="M3" s="118">
         <v>6862879800</v>
       </c>
-      <c r="N3" s="108">
+      <c r="N3" s="110">
         <f>M3</f>
         <v>6862879800</v>
       </c>
-      <c r="O3" s="109">
+      <c r="O3" s="118">
         <f>+M3*0.1</f>
         <v>686287980</v>
       </c>
-      <c r="P3" s="110">
+      <c r="P3" s="111">
         <f>O3</f>
         <v>686287980</v>
       </c>
-      <c r="Q3" s="111">
+      <c r="Q3" s="118">
         <f>+M3+O3</f>
         <v>7549167780</v>
       </c>
@@ -2078,71 +2093,71 @@
         <f>Q3</f>
         <v>7549167780</v>
       </c>
-      <c r="S3" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="T3" s="107" t="s">
+      <c r="S3" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="U3" s="107" t="s">
+      <c r="T3" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="V3" s="107" t="s">
+      <c r="U3" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="W3" s="107" t="s">
+      <c r="V3" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="X3" s="107" t="s">
+      <c r="W3" s="109" t="s">
         <v>73</v>
       </c>
+      <c r="X3" s="109" t="s">
+        <v>74</v>
+      </c>
       <c r="Y3" s="117" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z3" s="117" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3" s="107" t="s">
         <v>75</v>
       </c>
+      <c r="AA3" s="109" t="s">
+        <v>76</v>
+      </c>
       <c r="AB3" s="117" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC3" s="107" t="s">
         <v>77</v>
       </c>
+      <c r="AC3" s="109" t="s">
+        <v>78</v>
+      </c>
       <c r="AD3" s="117" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE3" s="107" t="s">
         <v>77</v>
       </c>
+      <c r="AE3" s="109" t="s">
+        <v>78</v>
+      </c>
       <c r="AF3" s="117" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG3" s="117" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH3" s="107" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AH3" s="109" t="s">
+        <v>79</v>
       </c>
       <c r="AI3" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ3" s="107" t="s">
         <v>80</v>
       </c>
+      <c r="AJ3" s="109" t="s">
+        <v>81</v>
+      </c>
       <c r="AK3" s="117" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL3" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM3" s="107" t="s">
         <v>83</v>
       </c>
+      <c r="AM3" s="109" t="s">
+        <v>84</v>
+      </c>
       <c r="AN3" s="117" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO3" s="118">
         <v>76000000</v>
@@ -2151,14 +2166,14 @@
         <f>AO3</f>
         <v>76000000</v>
       </c>
-      <c r="AQ3" s="107" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR3" s="107" t="s">
+      <c r="AQ3" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="AS3" s="107" t="s">
+      <c r="AR3" s="109" t="s">
         <v>87</v>
+      </c>
+      <c r="AS3" s="109" t="s">
+        <v>88</v>
       </c>
       <c r="AT3" s="118">
         <v>5285000000</v>
@@ -2174,20 +2189,23 @@
         <f>AV3</f>
         <v>10295000000</v>
       </c>
-      <c r="AX3" s="107" t="s">
-        <v>88</v>
+      <c r="AX3" s="109" t="s">
+        <v>89</v>
       </c>
       <c r="AY3" s="117" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AZ3" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="BA3" s="107" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BA3" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB3" s="109" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="116"/>
       <c r="B4" s="116"/>
       <c r="C4" s="116"/>
@@ -2241,8 +2259,9 @@
       <c r="AY4" s="116"/>
       <c r="AZ4" s="116"/>
       <c r="BA4" s="116"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB4" s="116"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="116"/>
       <c r="B5" s="116"/>
       <c r="C5" s="116"/>
@@ -2296,8 +2315,9 @@
       <c r="AY5" s="116"/>
       <c r="AZ5" s="116"/>
       <c r="BA5" s="116"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB5" s="116"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="116"/>
       <c r="B6" s="116"/>
       <c r="C6" s="116"/>
@@ -2351,8 +2371,9 @@
       <c r="AY6" s="116"/>
       <c r="AZ6" s="116"/>
       <c r="BA6" s="116"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB6" s="116"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="116"/>
       <c r="B7" s="116"/>
       <c r="C7" s="116"/>
@@ -2406,8 +2427,9 @@
       <c r="AY7" s="116"/>
       <c r="AZ7" s="116"/>
       <c r="BA7" s="116"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB7" s="116"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="116"/>
       <c r="B8" s="116"/>
       <c r="C8" s="116"/>
@@ -2461,8 +2483,9 @@
       <c r="AY8" s="116"/>
       <c r="AZ8" s="116"/>
       <c r="BA8" s="116"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB8" s="116"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="116"/>
       <c r="B9" s="116"/>
       <c r="C9" s="116"/>
@@ -2516,8 +2539,9 @@
       <c r="AY9" s="116"/>
       <c r="AZ9" s="116"/>
       <c r="BA9" s="116"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB9" s="116"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="116"/>
       <c r="B10" s="116"/>
       <c r="C10" s="116"/>
@@ -2571,8 +2595,9 @@
       <c r="AY10" s="116"/>
       <c r="AZ10" s="116"/>
       <c r="BA10" s="116"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB10" s="116"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" s="116"/>
       <c r="B11" s="116"/>
       <c r="C11" s="116"/>
@@ -2626,8 +2651,9 @@
       <c r="AY11" s="116"/>
       <c r="AZ11" s="116"/>
       <c r="BA11" s="116"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB11" s="116"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" s="116"/>
       <c r="B12" s="116"/>
       <c r="C12" s="116"/>
@@ -2681,8 +2707,9 @@
       <c r="AY12" s="116"/>
       <c r="AZ12" s="116"/>
       <c r="BA12" s="116"/>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB12" s="116"/>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" s="116"/>
       <c r="B13" s="116"/>
       <c r="C13" s="116"/>
@@ -2736,8 +2763,9 @@
       <c r="AY13" s="116"/>
       <c r="AZ13" s="116"/>
       <c r="BA13" s="116"/>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB13" s="116"/>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="116"/>
       <c r="B14" s="116"/>
       <c r="C14" s="116"/>
@@ -2791,8 +2819,9 @@
       <c r="AY14" s="116"/>
       <c r="AZ14" s="116"/>
       <c r="BA14" s="116"/>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB14" s="116"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="116"/>
       <c r="B15" s="116"/>
       <c r="C15" s="116"/>
@@ -2846,8 +2875,9 @@
       <c r="AY15" s="116"/>
       <c r="AZ15" s="116"/>
       <c r="BA15" s="116"/>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB15" s="116"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="116"/>
       <c r="B16" s="116"/>
       <c r="C16" s="116"/>
@@ -2901,8 +2931,9 @@
       <c r="AY16" s="116"/>
       <c r="AZ16" s="116"/>
       <c r="BA16" s="116"/>
-    </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB16" s="116"/>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="116"/>
       <c r="B17" s="116"/>
       <c r="C17" s="116"/>
@@ -2956,8 +2987,9 @@
       <c r="AY17" s="116"/>
       <c r="AZ17" s="116"/>
       <c r="BA17" s="116"/>
-    </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB17" s="116"/>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="116"/>
       <c r="B18" s="116"/>
       <c r="C18" s="116"/>
@@ -3011,8 +3043,9 @@
       <c r="AY18" s="116"/>
       <c r="AZ18" s="116"/>
       <c r="BA18" s="116"/>
-    </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB18" s="116"/>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="116"/>
       <c r="B19" s="116"/>
       <c r="C19" s="116"/>
@@ -3066,8 +3099,9 @@
       <c r="AY19" s="116"/>
       <c r="AZ19" s="116"/>
       <c r="BA19" s="116"/>
-    </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB19" s="116"/>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="116"/>
       <c r="B20" s="116"/>
       <c r="C20" s="116"/>
@@ -3121,8 +3155,9 @@
       <c r="AY20" s="116"/>
       <c r="AZ20" s="116"/>
       <c r="BA20" s="116"/>
-    </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB20" s="116"/>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="116"/>
       <c r="B21" s="116"/>
       <c r="C21" s="116"/>
@@ -3176,8 +3211,9 @@
       <c r="AY21" s="116"/>
       <c r="AZ21" s="116"/>
       <c r="BA21" s="116"/>
-    </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB21" s="116"/>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" s="116"/>
       <c r="B22" s="116"/>
       <c r="C22" s="116"/>
@@ -3231,8 +3267,9 @@
       <c r="AY22" s="116"/>
       <c r="AZ22" s="116"/>
       <c r="BA22" s="116"/>
-    </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB22" s="116"/>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" s="116"/>
       <c r="B23" s="116"/>
       <c r="C23" s="116"/>
@@ -3286,8 +3323,9 @@
       <c r="AY23" s="116"/>
       <c r="AZ23" s="116"/>
       <c r="BA23" s="116"/>
-    </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB23" s="116"/>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="116"/>
       <c r="B24" s="116"/>
       <c r="C24" s="116"/>
@@ -3341,8 +3379,9 @@
       <c r="AY24" s="116"/>
       <c r="AZ24" s="116"/>
       <c r="BA24" s="116"/>
-    </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB24" s="116"/>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="116"/>
       <c r="B25" s="116"/>
       <c r="C25" s="116"/>
@@ -3396,8 +3435,9 @@
       <c r="AY25" s="116"/>
       <c r="AZ25" s="116"/>
       <c r="BA25" s="116"/>
-    </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB25" s="116"/>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" s="116"/>
       <c r="B26" s="116"/>
       <c r="C26" s="116"/>
@@ -3451,8 +3491,9 @@
       <c r="AY26" s="116"/>
       <c r="AZ26" s="116"/>
       <c r="BA26" s="116"/>
-    </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB26" s="116"/>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" s="116"/>
       <c r="B27" s="116"/>
       <c r="C27" s="116"/>
@@ -3506,8 +3547,9 @@
       <c r="AY27" s="116"/>
       <c r="AZ27" s="116"/>
       <c r="BA27" s="116"/>
-    </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB27" s="116"/>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" s="116"/>
       <c r="B28" s="116"/>
       <c r="C28" s="116"/>
@@ -3561,8 +3603,9 @@
       <c r="AY28" s="116"/>
       <c r="AZ28" s="116"/>
       <c r="BA28" s="116"/>
-    </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB28" s="116"/>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" s="116"/>
       <c r="B29" s="116"/>
       <c r="C29" s="116"/>
@@ -3616,8 +3659,9 @@
       <c r="AY29" s="116"/>
       <c r="AZ29" s="116"/>
       <c r="BA29" s="116"/>
-    </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB29" s="116"/>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" s="116"/>
       <c r="B30" s="116"/>
       <c r="C30" s="116"/>
@@ -3671,8 +3715,9 @@
       <c r="AY30" s="116"/>
       <c r="AZ30" s="116"/>
       <c r="BA30" s="116"/>
-    </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB30" s="116"/>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" s="116"/>
       <c r="B31" s="116"/>
       <c r="C31" s="116"/>
@@ -3726,8 +3771,9 @@
       <c r="AY31" s="116"/>
       <c r="AZ31" s="116"/>
       <c r="BA31" s="116"/>
-    </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB31" s="116"/>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="116"/>
       <c r="B32" s="116"/>
       <c r="C32" s="116"/>
@@ -3781,8 +3827,9 @@
       <c r="AY32" s="116"/>
       <c r="AZ32" s="116"/>
       <c r="BA32" s="116"/>
-    </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB32" s="116"/>
+    </row>
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" s="116"/>
       <c r="B33" s="116"/>
       <c r="C33" s="116"/>
@@ -3836,8 +3883,9 @@
       <c r="AY33" s="116"/>
       <c r="AZ33" s="116"/>
       <c r="BA33" s="116"/>
-    </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB33" s="116"/>
+    </row>
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" s="116"/>
       <c r="B34" s="116"/>
       <c r="C34" s="116"/>
@@ -3891,8 +3939,9 @@
       <c r="AY34" s="116"/>
       <c r="AZ34" s="116"/>
       <c r="BA34" s="116"/>
-    </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB34" s="116"/>
+    </row>
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35" s="116"/>
       <c r="B35" s="116"/>
       <c r="C35" s="116"/>
@@ -3946,8 +3995,9 @@
       <c r="AY35" s="116"/>
       <c r="AZ35" s="116"/>
       <c r="BA35" s="116"/>
-    </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB35" s="116"/>
+    </row>
+    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A36" s="116"/>
       <c r="B36" s="116"/>
       <c r="C36" s="116"/>
@@ -4001,8 +4051,9 @@
       <c r="AY36" s="116"/>
       <c r="AZ36" s="116"/>
       <c r="BA36" s="116"/>
-    </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB36" s="116"/>
+    </row>
+    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" s="116"/>
       <c r="B37" s="116"/>
       <c r="C37" s="116"/>
@@ -4056,8 +4107,9 @@
       <c r="AY37" s="116"/>
       <c r="AZ37" s="116"/>
       <c r="BA37" s="116"/>
-    </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB37" s="116"/>
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38" s="116"/>
       <c r="B38" s="116"/>
       <c r="C38" s="116"/>
@@ -4111,8 +4163,9 @@
       <c r="AY38" s="116"/>
       <c r="AZ38" s="116"/>
       <c r="BA38" s="116"/>
-    </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB38" s="116"/>
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" s="116"/>
       <c r="B39" s="116"/>
       <c r="C39" s="116"/>
@@ -4166,8 +4219,9 @@
       <c r="AY39" s="116"/>
       <c r="AZ39" s="116"/>
       <c r="BA39" s="116"/>
-    </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB39" s="116"/>
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" s="116"/>
       <c r="B40" s="116"/>
       <c r="C40" s="116"/>
@@ -4221,8 +4275,9 @@
       <c r="AY40" s="116"/>
       <c r="AZ40" s="116"/>
       <c r="BA40" s="116"/>
-    </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB40" s="116"/>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A41" s="116"/>
       <c r="B41" s="116"/>
       <c r="C41" s="116"/>
@@ -4276,8 +4331,9 @@
       <c r="AY41" s="116"/>
       <c r="AZ41" s="116"/>
       <c r="BA41" s="116"/>
-    </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB41" s="116"/>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A42" s="116"/>
       <c r="B42" s="116"/>
       <c r="C42" s="116"/>
@@ -4331,8 +4387,9 @@
       <c r="AY42" s="116"/>
       <c r="AZ42" s="116"/>
       <c r="BA42" s="116"/>
-    </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB42" s="116"/>
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43" s="116"/>
       <c r="B43" s="116"/>
       <c r="C43" s="116"/>
@@ -4386,8 +4443,9 @@
       <c r="AY43" s="116"/>
       <c r="AZ43" s="116"/>
       <c r="BA43" s="116"/>
-    </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB43" s="116"/>
+    </row>
+    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A44" s="116"/>
       <c r="B44" s="116"/>
       <c r="C44" s="116"/>
@@ -4441,8 +4499,9 @@
       <c r="AY44" s="116"/>
       <c r="AZ44" s="116"/>
       <c r="BA44" s="116"/>
-    </row>
-    <row r="45" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB44" s="116"/>
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A45" s="116"/>
       <c r="B45" s="116"/>
       <c r="C45" s="116"/>
@@ -4496,8 +4555,9 @@
       <c r="AY45" s="116"/>
       <c r="AZ45" s="116"/>
       <c r="BA45" s="116"/>
-    </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB45" s="116"/>
+    </row>
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A46" s="116"/>
       <c r="B46" s="116"/>
       <c r="C46" s="116"/>
@@ -4551,8 +4611,9 @@
       <c r="AY46" s="116"/>
       <c r="AZ46" s="116"/>
       <c r="BA46" s="116"/>
-    </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB46" s="116"/>
+    </row>
+    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A47" s="116"/>
       <c r="B47" s="116"/>
       <c r="C47" s="116"/>
@@ -4606,8 +4667,9 @@
       <c r="AY47" s="116"/>
       <c r="AZ47" s="116"/>
       <c r="BA47" s="116"/>
-    </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB47" s="116"/>
+    </row>
+    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A48" s="116"/>
       <c r="B48" s="116"/>
       <c r="C48" s="116"/>
@@ -4661,8 +4723,9 @@
       <c r="AY48" s="116"/>
       <c r="AZ48" s="116"/>
       <c r="BA48" s="116"/>
-    </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB48" s="116"/>
+    </row>
+    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A49" s="116"/>
       <c r="B49" s="116"/>
       <c r="C49" s="116"/>
@@ -4716,8 +4779,9 @@
       <c r="AY49" s="116"/>
       <c r="AZ49" s="116"/>
       <c r="BA49" s="116"/>
-    </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB49" s="116"/>
+    </row>
+    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A50" s="116"/>
       <c r="B50" s="116"/>
       <c r="C50" s="116"/>
@@ -4771,8 +4835,9 @@
       <c r="AY50" s="116"/>
       <c r="AZ50" s="116"/>
       <c r="BA50" s="116"/>
-    </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB50" s="116"/>
+    </row>
+    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A51" s="116"/>
       <c r="B51" s="116"/>
       <c r="C51" s="116"/>
@@ -4826,8 +4891,9 @@
       <c r="AY51" s="116"/>
       <c r="AZ51" s="116"/>
       <c r="BA51" s="116"/>
-    </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB51" s="116"/>
+    </row>
+    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A52" s="116"/>
       <c r="B52" s="116"/>
       <c r="C52" s="116"/>
@@ -4881,8 +4947,9 @@
       <c r="AY52" s="116"/>
       <c r="AZ52" s="116"/>
       <c r="BA52" s="116"/>
-    </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB52" s="116"/>
+    </row>
+    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A53" s="116"/>
       <c r="B53" s="116"/>
       <c r="C53" s="116"/>
@@ -4936,8 +5003,9 @@
       <c r="AY53" s="116"/>
       <c r="AZ53" s="116"/>
       <c r="BA53" s="116"/>
-    </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB53" s="116"/>
+    </row>
+    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A54" s="116"/>
       <c r="B54" s="116"/>
       <c r="C54" s="116"/>
@@ -4991,8 +5059,9 @@
       <c r="AY54" s="116"/>
       <c r="AZ54" s="116"/>
       <c r="BA54" s="116"/>
-    </row>
-    <row r="55" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB54" s="116"/>
+    </row>
+    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A55" s="116"/>
       <c r="B55" s="116"/>
       <c r="C55" s="116"/>
@@ -5046,8 +5115,9 @@
       <c r="AY55" s="116"/>
       <c r="AZ55" s="116"/>
       <c r="BA55" s="116"/>
-    </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB55" s="116"/>
+    </row>
+    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A56" s="116"/>
       <c r="B56" s="116"/>
       <c r="C56" s="116"/>
@@ -5101,8 +5171,9 @@
       <c r="AY56" s="116"/>
       <c r="AZ56" s="116"/>
       <c r="BA56" s="116"/>
-    </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB56" s="116"/>
+    </row>
+    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A57" s="116"/>
       <c r="B57" s="116"/>
       <c r="C57" s="116"/>
@@ -5156,8 +5227,9 @@
       <c r="AY57" s="116"/>
       <c r="AZ57" s="116"/>
       <c r="BA57" s="116"/>
-    </row>
-    <row r="58" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB57" s="116"/>
+    </row>
+    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A58" s="116"/>
       <c r="B58" s="116"/>
       <c r="C58" s="116"/>
@@ -5211,8 +5283,9 @@
       <c r="AY58" s="116"/>
       <c r="AZ58" s="116"/>
       <c r="BA58" s="116"/>
-    </row>
-    <row r="59" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB58" s="116"/>
+    </row>
+    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A59" s="116"/>
       <c r="B59" s="116"/>
       <c r="C59" s="116"/>
@@ -5266,8 +5339,9 @@
       <c r="AY59" s="116"/>
       <c r="AZ59" s="116"/>
       <c r="BA59" s="116"/>
-    </row>
-    <row r="60" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB59" s="116"/>
+    </row>
+    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A60" s="116"/>
       <c r="B60" s="116"/>
       <c r="C60" s="116"/>
@@ -5321,8 +5395,9 @@
       <c r="AY60" s="116"/>
       <c r="AZ60" s="116"/>
       <c r="BA60" s="116"/>
-    </row>
-    <row r="61" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB60" s="116"/>
+    </row>
+    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A61" s="116"/>
       <c r="B61" s="116"/>
       <c r="C61" s="116"/>
@@ -5376,8 +5451,9 @@
       <c r="AY61" s="116"/>
       <c r="AZ61" s="116"/>
       <c r="BA61" s="116"/>
-    </row>
-    <row r="62" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB61" s="116"/>
+    </row>
+    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A62" s="116"/>
       <c r="B62" s="116"/>
       <c r="C62" s="116"/>
@@ -5431,8 +5507,9 @@
       <c r="AY62" s="116"/>
       <c r="AZ62" s="116"/>
       <c r="BA62" s="116"/>
-    </row>
-    <row r="63" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB62" s="116"/>
+    </row>
+    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A63" s="116"/>
       <c r="B63" s="116"/>
       <c r="C63" s="116"/>
@@ -5486,8 +5563,9 @@
       <c r="AY63" s="116"/>
       <c r="AZ63" s="116"/>
       <c r="BA63" s="116"/>
-    </row>
-    <row r="64" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB63" s="116"/>
+    </row>
+    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A64" s="116"/>
       <c r="B64" s="116"/>
       <c r="C64" s="116"/>
@@ -5541,8 +5619,9 @@
       <c r="AY64" s="116"/>
       <c r="AZ64" s="116"/>
       <c r="BA64" s="116"/>
-    </row>
-    <row r="65" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB64" s="116"/>
+    </row>
+    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A65" s="116"/>
       <c r="B65" s="116"/>
       <c r="C65" s="116"/>
@@ -5596,8 +5675,9 @@
       <c r="AY65" s="116"/>
       <c r="AZ65" s="116"/>
       <c r="BA65" s="116"/>
-    </row>
-    <row r="66" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB65" s="116"/>
+    </row>
+    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A66" s="116"/>
       <c r="B66" s="116"/>
       <c r="C66" s="116"/>
@@ -5651,8 +5731,9 @@
       <c r="AY66" s="116"/>
       <c r="AZ66" s="116"/>
       <c r="BA66" s="116"/>
-    </row>
-    <row r="67" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB66" s="116"/>
+    </row>
+    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A67" s="116"/>
       <c r="B67" s="116"/>
       <c r="C67" s="116"/>
@@ -5706,8 +5787,9 @@
       <c r="AY67" s="116"/>
       <c r="AZ67" s="116"/>
       <c r="BA67" s="116"/>
-    </row>
-    <row r="68" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB67" s="116"/>
+    </row>
+    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A68" s="116"/>
       <c r="B68" s="116"/>
       <c r="C68" s="116"/>
@@ -5761,8 +5843,9 @@
       <c r="AY68" s="116"/>
       <c r="AZ68" s="116"/>
       <c r="BA68" s="116"/>
-    </row>
-    <row r="69" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB68" s="116"/>
+    </row>
+    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A69" s="116"/>
       <c r="B69" s="116"/>
       <c r="C69" s="116"/>
@@ -5816,8 +5899,9 @@
       <c r="AY69" s="116"/>
       <c r="AZ69" s="116"/>
       <c r="BA69" s="116"/>
-    </row>
-    <row r="70" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB69" s="116"/>
+    </row>
+    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A70" s="116"/>
       <c r="B70" s="116"/>
       <c r="C70" s="116"/>
@@ -5871,8 +5955,9 @@
       <c r="AY70" s="116"/>
       <c r="AZ70" s="116"/>
       <c r="BA70" s="116"/>
-    </row>
-    <row r="71" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB70" s="116"/>
+    </row>
+    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A71" s="116"/>
       <c r="B71" s="116"/>
       <c r="C71" s="116"/>
@@ -5926,8 +6011,9 @@
       <c r="AY71" s="116"/>
       <c r="AZ71" s="116"/>
       <c r="BA71" s="116"/>
-    </row>
-    <row r="72" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB71" s="116"/>
+    </row>
+    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A72" s="116"/>
       <c r="B72" s="116"/>
       <c r="C72" s="116"/>
@@ -5981,8 +6067,9 @@
       <c r="AY72" s="116"/>
       <c r="AZ72" s="116"/>
       <c r="BA72" s="116"/>
-    </row>
-    <row r="73" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB72" s="116"/>
+    </row>
+    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A73" s="116"/>
       <c r="B73" s="116"/>
       <c r="C73" s="116"/>
@@ -6036,8 +6123,9 @@
       <c r="AY73" s="116"/>
       <c r="AZ73" s="116"/>
       <c r="BA73" s="116"/>
-    </row>
-    <row r="74" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB73" s="116"/>
+    </row>
+    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A74" s="116"/>
       <c r="B74" s="116"/>
       <c r="C74" s="116"/>
@@ -6091,8 +6179,9 @@
       <c r="AY74" s="116"/>
       <c r="AZ74" s="116"/>
       <c r="BA74" s="116"/>
-    </row>
-    <row r="75" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB74" s="116"/>
+    </row>
+    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A75" s="116"/>
       <c r="B75" s="116"/>
       <c r="C75" s="116"/>
@@ -6146,8 +6235,9 @@
       <c r="AY75" s="116"/>
       <c r="AZ75" s="116"/>
       <c r="BA75" s="116"/>
-    </row>
-    <row r="76" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB75" s="116"/>
+    </row>
+    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A76" s="116"/>
       <c r="B76" s="116"/>
       <c r="C76" s="116"/>
@@ -6201,8 +6291,9 @@
       <c r="AY76" s="116"/>
       <c r="AZ76" s="116"/>
       <c r="BA76" s="116"/>
-    </row>
-    <row r="77" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB76" s="116"/>
+    </row>
+    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A77" s="116"/>
       <c r="B77" s="116"/>
       <c r="C77" s="116"/>
@@ -6256,8 +6347,9 @@
       <c r="AY77" s="116"/>
       <c r="AZ77" s="116"/>
       <c r="BA77" s="116"/>
-    </row>
-    <row r="78" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB77" s="116"/>
+    </row>
+    <row r="78" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A78" s="116"/>
       <c r="B78" s="116"/>
       <c r="C78" s="116"/>
@@ -6311,8 +6403,9 @@
       <c r="AY78" s="116"/>
       <c r="AZ78" s="116"/>
       <c r="BA78" s="116"/>
-    </row>
-    <row r="79" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB78" s="116"/>
+    </row>
+    <row r="79" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A79" s="116"/>
       <c r="B79" s="116"/>
       <c r="C79" s="116"/>
@@ -6366,8 +6459,9 @@
       <c r="AY79" s="116"/>
       <c r="AZ79" s="116"/>
       <c r="BA79" s="116"/>
-    </row>
-    <row r="80" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB79" s="116"/>
+    </row>
+    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A80" s="116"/>
       <c r="B80" s="116"/>
       <c r="C80" s="116"/>
@@ -6421,8 +6515,9 @@
       <c r="AY80" s="116"/>
       <c r="AZ80" s="116"/>
       <c r="BA80" s="116"/>
-    </row>
-    <row r="81" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB80" s="116"/>
+    </row>
+    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A81" s="116"/>
       <c r="B81" s="116"/>
       <c r="C81" s="116"/>
@@ -6476,8 +6571,9 @@
       <c r="AY81" s="116"/>
       <c r="AZ81" s="116"/>
       <c r="BA81" s="116"/>
-    </row>
-    <row r="82" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB81" s="116"/>
+    </row>
+    <row r="82" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A82" s="116"/>
       <c r="B82" s="116"/>
       <c r="C82" s="116"/>
@@ -6531,8 +6627,9 @@
       <c r="AY82" s="116"/>
       <c r="AZ82" s="116"/>
       <c r="BA82" s="116"/>
-    </row>
-    <row r="83" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB82" s="116"/>
+    </row>
+    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A83" s="116"/>
       <c r="B83" s="116"/>
       <c r="C83" s="116"/>
@@ -6586,8 +6683,9 @@
       <c r="AY83" s="116"/>
       <c r="AZ83" s="116"/>
       <c r="BA83" s="116"/>
-    </row>
-    <row r="84" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB83" s="116"/>
+    </row>
+    <row r="84" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A84" s="116"/>
       <c r="B84" s="116"/>
       <c r="C84" s="116"/>
@@ -6641,8 +6739,9 @@
       <c r="AY84" s="116"/>
       <c r="AZ84" s="116"/>
       <c r="BA84" s="116"/>
-    </row>
-    <row r="85" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB84" s="116"/>
+    </row>
+    <row r="85" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A85" s="116"/>
       <c r="B85" s="116"/>
       <c r="C85" s="116"/>
@@ -6696,8 +6795,9 @@
       <c r="AY85" s="116"/>
       <c r="AZ85" s="116"/>
       <c r="BA85" s="116"/>
-    </row>
-    <row r="86" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB85" s="116"/>
+    </row>
+    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A86" s="116"/>
       <c r="B86" s="116"/>
       <c r="C86" s="116"/>
@@ -6751,8 +6851,9 @@
       <c r="AY86" s="116"/>
       <c r="AZ86" s="116"/>
       <c r="BA86" s="116"/>
-    </row>
-    <row r="87" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB86" s="116"/>
+    </row>
+    <row r="87" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A87" s="116"/>
       <c r="B87" s="116"/>
       <c r="C87" s="116"/>
@@ -6806,8 +6907,9 @@
       <c r="AY87" s="116"/>
       <c r="AZ87" s="116"/>
       <c r="BA87" s="116"/>
-    </row>
-    <row r="88" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB87" s="116"/>
+    </row>
+    <row r="88" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A88" s="116"/>
       <c r="B88" s="116"/>
       <c r="C88" s="116"/>
@@ -6861,8 +6963,9 @@
       <c r="AY88" s="116"/>
       <c r="AZ88" s="116"/>
       <c r="BA88" s="116"/>
-    </row>
-    <row r="89" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB88" s="116"/>
+    </row>
+    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A89" s="116"/>
       <c r="B89" s="116"/>
       <c r="C89" s="116"/>
@@ -6916,8 +7019,9 @@
       <c r="AY89" s="116"/>
       <c r="AZ89" s="116"/>
       <c r="BA89" s="116"/>
-    </row>
-    <row r="90" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB89" s="116"/>
+    </row>
+    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A90" s="116"/>
       <c r="B90" s="116"/>
       <c r="C90" s="116"/>
@@ -6971,8 +7075,9 @@
       <c r="AY90" s="116"/>
       <c r="AZ90" s="116"/>
       <c r="BA90" s="116"/>
-    </row>
-    <row r="91" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB90" s="116"/>
+    </row>
+    <row r="91" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A91" s="116"/>
       <c r="B91" s="116"/>
       <c r="C91" s="116"/>
@@ -7026,8 +7131,9 @@
       <c r="AY91" s="116"/>
       <c r="AZ91" s="116"/>
       <c r="BA91" s="116"/>
-    </row>
-    <row r="92" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB91" s="116"/>
+    </row>
+    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A92" s="116"/>
       <c r="B92" s="116"/>
       <c r="C92" s="116"/>
@@ -7081,8 +7187,9 @@
       <c r="AY92" s="116"/>
       <c r="AZ92" s="116"/>
       <c r="BA92" s="116"/>
-    </row>
-    <row r="93" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB92" s="116"/>
+    </row>
+    <row r="93" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A93" s="116"/>
       <c r="B93" s="116"/>
       <c r="C93" s="116"/>
@@ -7136,8 +7243,9 @@
       <c r="AY93" s="116"/>
       <c r="AZ93" s="116"/>
       <c r="BA93" s="116"/>
-    </row>
-    <row r="94" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB93" s="116"/>
+    </row>
+    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A94" s="116"/>
       <c r="B94" s="116"/>
       <c r="C94" s="116"/>
@@ -7191,8 +7299,9 @@
       <c r="AY94" s="116"/>
       <c r="AZ94" s="116"/>
       <c r="BA94" s="116"/>
-    </row>
-    <row r="95" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB94" s="116"/>
+    </row>
+    <row r="95" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A95" s="116"/>
       <c r="B95" s="116"/>
       <c r="C95" s="116"/>
@@ -7246,8 +7355,9 @@
       <c r="AY95" s="116"/>
       <c r="AZ95" s="116"/>
       <c r="BA95" s="116"/>
-    </row>
-    <row r="96" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB95" s="116"/>
+    </row>
+    <row r="96" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A96" s="116"/>
       <c r="B96" s="116"/>
       <c r="C96" s="116"/>
@@ -7301,8 +7411,9 @@
       <c r="AY96" s="116"/>
       <c r="AZ96" s="116"/>
       <c r="BA96" s="116"/>
-    </row>
-    <row r="97" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB96" s="116"/>
+    </row>
+    <row r="97" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A97" s="116"/>
       <c r="B97" s="116"/>
       <c r="C97" s="116"/>
@@ -7356,8 +7467,9 @@
       <c r="AY97" s="116"/>
       <c r="AZ97" s="116"/>
       <c r="BA97" s="116"/>
-    </row>
-    <row r="98" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB97" s="116"/>
+    </row>
+    <row r="98" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A98" s="116"/>
       <c r="B98" s="116"/>
       <c r="C98" s="116"/>
@@ -7411,8 +7523,9 @@
       <c r="AY98" s="116"/>
       <c r="AZ98" s="116"/>
       <c r="BA98" s="116"/>
-    </row>
-    <row r="99" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB98" s="116"/>
+    </row>
+    <row r="99" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A99" s="116"/>
       <c r="B99" s="116"/>
       <c r="C99" s="116"/>
@@ -7466,8 +7579,9 @@
       <c r="AY99" s="116"/>
       <c r="AZ99" s="116"/>
       <c r="BA99" s="116"/>
-    </row>
-    <row r="100" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB99" s="116"/>
+    </row>
+    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A100" s="116"/>
       <c r="B100" s="116"/>
       <c r="C100" s="116"/>
@@ -7521,8 +7635,9 @@
       <c r="AY100" s="116"/>
       <c r="AZ100" s="116"/>
       <c r="BA100" s="116"/>
-    </row>
-    <row r="101" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="BB100" s="116"/>
+    </row>
+    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A101" s="116"/>
       <c r="B101" s="116"/>
       <c r="C101" s="116"/>
@@ -7576,6 +7691,7 @@
       <c r="AY101" s="116"/>
       <c r="AZ101" s="116"/>
       <c r="BA101" s="116"/>
+      <c r="BB101" s="116"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
